--- a/inputs/Resources_Baseline.xlsx
+++ b/inputs/Resources_Baseline.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1361,7 +1361,7 @@
         <v>1980</v>
       </c>
       <c r="F9">
-        <v>9999</v>
+        <v>2020</v>
       </c>
       <c r="G9" s="1">
         <v>23.44</v>
